--- a/Cupriavidus_Core_PCB_Submission.xlsx
+++ b/Cupriavidus_Core_PCB_Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euler\Documents\Research\Mixotrophy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AC9DF3-BF67-4440-A016-58BDAC30111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE35190-1ACE-410A-85C0-FC5BE93FF31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DFFC6271-70B4-7649-A99E-1F8F56F21DAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFFC6271-70B4-7649-A99E-1F8F56F21DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolites" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="628">
   <si>
     <t>METID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>METID_KEGG</t>
   </si>
   <si>
-    <t>LOWER_CONC</t>
-  </si>
-  <si>
     <t>UPPER_CONC</t>
   </si>
   <si>
@@ -1185,6 +1182,54 @@
     <t>Atp Maintenance</t>
   </si>
   <si>
+    <t>XFPK1</t>
+  </si>
+  <si>
+    <t>R00761</t>
+  </si>
+  <si>
+    <t>phosphoketolase, f6p</t>
+  </si>
+  <si>
+    <t>f6p[c] + pi[c] &lt;=&gt; e4p[c] + actp[c] + h2o[c]</t>
+  </si>
+  <si>
+    <t>4.1.2.22</t>
+  </si>
+  <si>
+    <t>Engineered</t>
+  </si>
+  <si>
+    <t>XFPK2</t>
+  </si>
+  <si>
+    <t>R01621</t>
+  </si>
+  <si>
+    <t>phosphoketolase, x5p</t>
+  </si>
+  <si>
+    <t>x5p[c] + pi[c] &lt;=&gt; g3p[c] + actp[c] + h2o[c]</t>
+  </si>
+  <si>
+    <t>4.1.2.9</t>
+  </si>
+  <si>
+    <t>aclAB</t>
+  </si>
+  <si>
+    <t>R00352</t>
+  </si>
+  <si>
+    <t>ATP-citrate lyase</t>
+  </si>
+  <si>
+    <t>atp[c] + coa[c] + cit[c] &lt;=&gt; adp[c] + pi[c] + accoa[c] + oaa[c]</t>
+  </si>
+  <si>
+    <t>2.3.3.8</t>
+  </si>
+  <si>
     <t>phaA</t>
   </si>
   <si>
@@ -1362,12 +1407,6 @@
     <t>dfG</t>
   </si>
   <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
     <t>o2[e]</t>
   </si>
   <si>
@@ -1876,6 +1915,12 @@
   </si>
   <si>
     <t>acetoacetyl-CoA thiolase</t>
+  </si>
+  <si>
+    <t>CHARGE</t>
+  </si>
+  <si>
+    <t>UNCERTAINTY</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488579AE-1461-2D48-91B4-5ABF50789CEC}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2370,36 +2415,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>441</v>
+        <v>627</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>442</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="30">
-        <v>5.0000000000000001E-4</v>
+        <v>568</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F2" s="30">
         <v>5.0000000000000001E-4</v>
@@ -2416,19 +2461,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E3" s="30">
-        <v>6.0000000000000002E-5</v>
+        <v>569</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F3" s="30">
         <v>1E-4</v>
@@ -2445,19 +2490,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="30">
-        <v>3.9800000000000002E-2</v>
+        <v>570</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F4" s="30">
         <v>3.9800000000000002E-2</v>
@@ -2474,19 +2519,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1</v>
+        <v>571</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F5" s="30">
         <v>1</v>
@@ -2503,19 +2548,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>572</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F6" s="6">
         <v>0.01</v>
@@ -2532,19 +2577,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E7" s="30">
-        <v>5.5E-2</v>
+        <v>573</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F7" s="30">
         <v>5.5E-2</v>
@@ -2561,19 +2606,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E8" s="30">
-        <v>5.5500000000000002E-3</v>
+        <v>574</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F8" s="30">
         <v>5.5500000000000002E-3</v>
@@ -2590,19 +2635,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E9" s="30">
-        <v>5.2400000000000002E-2</v>
+        <v>575</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F9" s="30">
         <v>5.2400000000000002E-2</v>
@@ -2619,19 +2664,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E10" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>568</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F10" s="6">
         <v>5.0000000000000001E-4</v>
@@ -2648,19 +2693,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E11" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>569</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F11" s="6">
         <v>0.01</v>
@@ -2677,19 +2722,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E12" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>570</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F12" s="6">
         <v>0.01</v>
@@ -2706,19 +2751,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
+        <v>558</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -2735,19 +2780,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1</v>
+        <v>571</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="F14" s="30">
         <v>1</v>
@@ -2764,19 +2809,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E15" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>572</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F15" s="6">
         <v>0.01</v>
@@ -2793,19 +2838,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>576</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="6">
         <v>0.01</v>
@@ -2822,19 +2867,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>573</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F17" s="6">
         <v>0.01</v>
@@ -2851,19 +2896,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>574</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="6">
         <v>0.01</v>
@@ -2880,19 +2925,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>577</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="6">
         <v>0.01</v>
@@ -2909,19 +2954,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E20" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>578</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F20" s="6">
         <v>0.01</v>
@@ -2938,19 +2983,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E21" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>579</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F21" s="6">
         <v>0.01</v>
@@ -2967,19 +3012,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E22" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>580</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F22" s="6">
         <v>0.01</v>
@@ -2996,19 +3041,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E23" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>581</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F23" s="6">
         <v>0.01</v>
@@ -3025,19 +3070,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>582</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F24" s="6">
         <v>0.01</v>
@@ -3054,19 +3099,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E25" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>583</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F25" s="6">
         <v>0.01</v>
@@ -3083,19 +3128,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E26" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>584</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F26" s="6">
         <v>0.01</v>
@@ -3112,19 +3157,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="E27" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>585</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F27" s="6">
         <v>0.01</v>
@@ -3141,19 +3186,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="E28" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>586</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F28" s="6">
         <v>0.01</v>
@@ -3170,19 +3215,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E29" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>587</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F29" s="6">
         <v>0.01</v>
@@ -3199,19 +3244,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E30" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>575</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F30" s="6">
         <v>0.01</v>
@@ -3228,19 +3273,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E31" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>588</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F31" s="6">
         <v>0.01</v>
@@ -3257,19 +3302,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E32" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>589</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F32" s="6">
         <v>0.01</v>
@@ -3286,19 +3331,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E33" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>590</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F33" s="6">
         <v>0.01</v>
@@ -3315,19 +3360,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E34" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>591</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F34" s="6">
         <v>0.01</v>
@@ -3344,19 +3389,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E35" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>592</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F35" s="6">
         <v>0.01</v>
@@ -3373,19 +3418,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E36" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>593</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F36" s="6">
         <v>0.01</v>
@@ -3402,19 +3447,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E37" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>594</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F37" s="6">
         <v>0.01</v>
@@ -3431,19 +3476,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E38" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>595</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F38" s="6">
         <v>0.01</v>
@@ -3460,19 +3505,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E39" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>596</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F39" s="6">
         <v>0.01</v>
@@ -3489,19 +3534,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E40" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>597</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F40" s="6">
         <v>0.01</v>
@@ -3518,19 +3563,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E41" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>598</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F41" s="6">
         <v>0.01</v>
@@ -3547,19 +3592,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E42" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>599</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F42" s="6">
         <v>0.01</v>
@@ -3576,19 +3621,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E43" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>600</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F43" s="6">
         <v>0.01</v>
@@ -3605,19 +3650,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E44" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>601</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F44" s="6">
         <v>0.01</v>
@@ -3634,19 +3679,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E45" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>602</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F45" s="6">
         <v>0.01</v>
@@ -3663,19 +3708,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E46" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>603</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F46" s="6">
         <v>0.01</v>
@@ -3692,19 +3737,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E47" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>604</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F47" s="6">
         <v>0.01</v>
@@ -3721,19 +3766,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="E48" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>605</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F48" s="6">
         <v>0.01</v>
@@ -3750,19 +3795,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E49" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>606</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F49" s="6">
         <v>0.01</v>
@@ -3779,19 +3824,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E50" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>607</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F50" s="6">
         <v>0.01</v>
@@ -3808,19 +3853,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E51" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>608</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F51" s="6">
         <v>0.01</v>
@@ -3837,19 +3882,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E52" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>609</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F52" s="6">
         <v>0.01</v>
@@ -3866,19 +3911,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E53" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>610</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F53" s="6">
         <v>0.01</v>
@@ -3895,19 +3940,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E54" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>611</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F54" s="6">
         <v>0.01</v>
@@ -3924,19 +3969,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E55" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>612</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F55" s="6">
         <v>0.01</v>
@@ -3953,19 +3998,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="E56" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>613</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F56" s="6">
         <v>0.01</v>
@@ -3982,19 +4027,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E57" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>614</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F57" s="6">
         <v>0.01</v>
@@ -4011,19 +4056,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E58" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>615</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F58" s="6">
         <v>0.01</v>
@@ -4040,19 +4085,19 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E59" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>616</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F59" s="6">
         <v>0.01</v>
@@ -4069,19 +4114,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E60" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>617</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F60" s="6">
         <v>0.01</v>
@@ -4098,19 +4143,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E61" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>618</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F61" s="31">
         <v>0.1</v>
@@ -4127,19 +4172,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E62" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>619</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F62" s="6">
         <v>0.01</v>
@@ -4156,19 +4201,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E63" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>620</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F63" s="6">
         <v>0.01</v>
@@ -4185,19 +4230,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E64" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>621</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F64" s="6">
         <v>0.01</v>
@@ -4214,19 +4259,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E65" s="30">
-        <v>1</v>
+        <v>622</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F65" s="30">
         <v>1</v>
@@ -4243,19 +4288,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E66" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>623</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F66" s="6">
         <v>0.01</v>
@@ -4272,19 +4317,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E67" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>623</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F67" s="6">
         <v>0.01</v>
@@ -4301,19 +4346,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4.0000000000000001E-8</v>
+        <v>624</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F68" s="6">
         <v>4.0000000000000001E-8</v>
@@ -4326,19 +4371,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E69" s="6">
-        <v>9.9999999999999995E-7</v>
+        <v>624</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F69" s="6">
         <v>0.01</v>
@@ -4356,10 +4401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CF2DEE-32E3-BA42-A8F2-CF88F6CB388E}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4376,62 +4421,62 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -4442,27 +4487,27 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="3">
         <v>-1000</v>
@@ -4473,27 +4518,27 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -4504,27 +4549,27 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="3">
         <v>-1000</v>
@@ -4535,27 +4580,27 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3">
         <v>-1000</v>
@@ -4566,27 +4611,27 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="3">
         <v>-1000</v>
@@ -4597,27 +4642,27 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -4628,27 +4673,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="3">
         <v>-1000</v>
@@ -4659,27 +4704,27 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -4690,27 +4735,27 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="3">
         <v>-1000</v>
@@ -4721,27 +4766,27 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -4752,27 +4797,27 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -4783,27 +4828,27 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" s="3">
         <v>-1000</v>
@@ -4814,27 +4859,27 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" s="3">
         <v>-1000</v>
@@ -4845,27 +4890,27 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -4876,27 +4921,27 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -4907,27 +4952,27 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -4938,27 +4983,27 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -4969,29 +5014,29 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="3">
         <v>-17.600000000000001</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -5002,29 +5047,29 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="H21" s="3">
         <v>16.3</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -5035,29 +5080,29 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3">
         <v>-42.8</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -5068,29 +5113,29 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" s="11">
         <v>-25.4</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" s="11">
         <v>-1000</v>
@@ -5101,29 +5146,29 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="11">
         <v>-6.8</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J24" s="11">
         <v>-1000</v>
@@ -5134,29 +5179,29 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="11">
         <v>-2.6</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J25" s="11">
         <v>-1000</v>
@@ -5167,29 +5212,29 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="3">
         <v>-11.8</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -5200,29 +5245,29 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="11">
         <v>-23.2</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J27" s="11">
         <v>-1000</v>
@@ -5233,29 +5278,29 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="11">
         <v>-5.6</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="11">
         <v>-1000</v>
@@ -5266,29 +5311,29 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3">
         <v>1.2</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -5299,29 +5344,29 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="18" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="16">
         <v>-1.2</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -5332,29 +5377,29 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="11">
         <v>18.5</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J31" s="11">
         <v>-1000</v>
@@ -5365,29 +5410,29 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="11">
         <v>4.5</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J32" s="11">
         <v>-1000</v>
@@ -5398,29 +5443,29 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="C33" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="11">
         <v>-3.8</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33" s="11">
         <v>-1000</v>
@@ -5431,29 +5476,29 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="3">
         <v>-25</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -5464,29 +5509,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="3">
         <v>-4.9000000000000004</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -5497,29 +5542,29 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="H36" s="3">
         <v>-42.3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -5530,29 +5575,29 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H37" s="11">
         <v>3.8</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37" s="11">
         <v>-1000</v>
@@ -5563,29 +5608,29 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H38" s="3">
         <v>-38.799999999999997</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -5596,29 +5641,29 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="C39" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H39" s="11">
         <v>6.8</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39" s="11">
         <v>-1000</v>
@@ -5629,29 +5674,29 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H40" s="11">
         <v>-2.6</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40" s="11">
         <v>-1000</v>
@@ -5662,29 +5707,29 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H41" s="3">
         <v>-36.299999999999997</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -5695,29 +5740,29 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H42" s="11">
         <v>1.2</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J42" s="11">
         <v>-1000</v>
@@ -5728,29 +5773,29 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H43" s="3">
         <v>-24.1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -5761,29 +5806,29 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H44" s="11">
         <v>-3.4</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J44" s="11">
         <v>-1000</v>
@@ -5794,29 +5839,29 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H45" s="11">
         <v>26.5</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J45" s="11">
         <v>-1000</v>
@@ -5827,29 +5872,29 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="H46" s="3">
         <v>9.5</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -5860,29 +5905,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H47" s="3">
         <v>-38.700000000000003</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -5893,29 +5938,29 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="H48" s="11">
         <v>10.3</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J48" s="11">
         <v>-1000</v>
@@ -5926,29 +5971,29 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H49" s="11">
         <v>-21</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J49" s="11">
         <v>-1000</v>
@@ -5959,29 +6004,29 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H50" s="3">
         <v>13.1</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -5992,29 +6037,29 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H51" s="11">
         <v>-3.4</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J51" s="11">
         <v>-1000</v>
@@ -6025,29 +6070,29 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="H52" s="11">
         <v>3.8</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J52" s="11">
         <v>-1000</v>
@@ -6058,29 +6103,29 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H53" s="11">
         <v>2.1</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J53" s="11">
         <v>-1000</v>
@@ -6091,29 +6136,29 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H54" s="11">
         <v>3.4</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" s="11">
         <v>-1000</v>
@@ -6124,29 +6169,29 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H55" s="3">
         <v>-28.6</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -6157,29 +6202,29 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="D56" s="10" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H56" s="3">
         <v>-23.9</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
@@ -6190,29 +6235,29 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>316</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="H57" s="11">
         <v>-8.1999999999999993</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J57" s="11">
         <v>-1000</v>
@@ -6223,29 +6268,29 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H58" s="3">
         <v>-43.6</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -6256,29 +6301,29 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="C59" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="D59" s="11" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H59" s="11">
         <v>14</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J59" s="11">
         <v>-1000</v>
@@ -6289,29 +6334,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>329</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H60" s="11">
         <v>8.6999999999999993</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J60" s="11">
         <v>-1000</v>
@@ -6322,29 +6367,29 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B61" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>333</v>
-      </c>
       <c r="D61" s="26" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>334</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>335</v>
       </c>
       <c r="H61" s="24">
         <v>-32.200000000000003</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J61" s="24">
         <v>0</v>
@@ -6355,29 +6400,29 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="C62" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>338</v>
-      </c>
       <c r="D62" s="26" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H62" s="24">
         <v>7.2</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J62" s="24">
         <v>-1000</v>
@@ -6388,29 +6433,29 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="C63" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>342</v>
-      </c>
       <c r="D63" s="26" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H63" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J63" s="24">
         <v>0</v>
@@ -6421,29 +6466,29 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>346</v>
-      </c>
       <c r="D64" s="24" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H64" s="24">
         <v>2.6</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J64" s="24">
         <v>0</v>
@@ -6454,29 +6499,29 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="H65" s="3">
         <v>-33.4</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J65" s="3">
         <v>0</v>
@@ -6487,29 +6532,29 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H66" s="3">
         <v>-15.3</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -6520,29 +6565,29 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H67" s="3">
         <v>-52.6</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J67" s="3">
         <v>0</v>
@@ -6553,29 +6598,29 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="D68" s="10" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H68" s="3">
         <v>-256.39999999999998</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J68" s="3">
         <v>0</v>
@@ -6586,29 +6631,29 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H69" s="11">
         <v>-16.5</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -6619,29 +6664,29 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="H70" s="11">
         <v>0</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J70" s="11">
         <v>-1000</v>
@@ -6652,29 +6697,29 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>378</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H71" s="11">
         <v>0.3</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J71" s="11">
         <v>-1000</v>
@@ -6685,29 +6730,29 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H72" s="3">
         <v>-29.6</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -6716,20 +6761,19 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E73" s="3"/>
       <c r="F73" s="5" t="s">
         <v>385</v>
       </c>
@@ -6737,107 +6781,107 @@
         <v>386</v>
       </c>
       <c r="H73" s="3">
-        <v>25</v>
+        <v>-49.9</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J73" s="3">
         <v>0</v>
       </c>
       <c r="K73" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>413</v>
+        <v>388</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E74" s="3"/>
+        <v>390</v>
+      </c>
       <c r="F74" s="5" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="H74" s="3">
-        <v>-14.3</v>
+        <v>-60</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
       </c>
       <c r="K74" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" s="3"/>
+        <v>395</v>
+      </c>
       <c r="F75" s="5" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H75" s="5"/>
+        <v>386</v>
+      </c>
+      <c r="H75" s="3">
+        <v>9.6</v>
+      </c>
       <c r="I75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>520</v>
+        <v>397</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>525</v>
+        <v>398</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>521</v>
+        <v>625</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="5" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="H76" s="3">
-        <v>-38.6</v>
+        <v>25</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -6848,34 +6892,131 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>524</v>
+        <v>427</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>531</v>
+        <v>429</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="5" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
       <c r="H77" s="3">
+        <v>-14.3</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H79" s="3">
+        <v>-38.6</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H80" s="3">
         <v>-120.9</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3">
+      <c r="I80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
         <v>1000</v>
       </c>
     </row>
